--- a/REGULAR/OJT/NEW DONE/MIRANDO, EDITH.xlsx
+++ b/REGULAR/OJT/NEW DONE/MIRANDO, EDITH.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F7F410-4C5D-4EC2-B68D-6DD36E4B180F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="432">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1335,7 +1334,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2010,7 +2009,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2027,26 +2026,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K613" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K613" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K613" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2353,34 +2351,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K613"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A553" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2399,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2421,7 +2419,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2443,7 +2441,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2451,7 +2449,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2464,7 +2462,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2481,7 +2479,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2516,7 +2514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2525,7 +2523,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>85.36200000000008</v>
+        <v>84.36200000000008</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
@@ -2537,7 +2535,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>80</v>
       </c>
@@ -2556,7 +2554,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>36342</v>
       </c>
@@ -2576,7 +2574,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>36373</v>
       </c>
@@ -2602,7 +2600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>99</v>
@@ -2622,7 +2620,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>36404</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>100</v>
@@ -2668,7 +2666,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>36434</v>
       </c>
@@ -2694,7 +2692,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36465</v>
       </c>
@@ -2720,7 +2718,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>50</v>
@@ -2742,7 +2740,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23"/>
       <c r="B19" s="20" t="s">
         <v>101</v>
@@ -2762,7 +2760,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>36495</v>
       </c>
@@ -2788,7 +2786,7 @@
         <v>36172</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -2810,7 +2808,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>50</v>
@@ -2832,7 +2830,7 @@
         <v>36231</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>49</v>
@@ -2854,7 +2852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>103</v>
@@ -2874,7 +2872,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>98</v>
       </c>
@@ -2896,7 +2894,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>36526</v>
       </c>
@@ -2922,7 +2920,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>111</v>
@@ -2941,7 +2939,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>99</v>
@@ -2961,7 +2959,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36557</v>
       </c>
@@ -2987,7 +2985,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>111</v>
@@ -3009,7 +3007,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36586</v>
       </c>
@@ -3035,7 +3033,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>36617</v>
       </c>
@@ -3055,7 +3053,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <v>36647</v>
       </c>
@@ -3081,7 +3079,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>50</v>
@@ -3103,7 +3101,7 @@
         <v>36774</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>111</v>
@@ -3125,7 +3123,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>114</v>
@@ -3145,7 +3143,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36678</v>
       </c>
@@ -3171,7 +3169,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>111</v>
@@ -3193,7 +3191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>115</v>
@@ -3213,7 +3211,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36708</v>
       </c>
@@ -3237,7 +3235,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>36739</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>117</v>
@@ -3280,7 +3278,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36770</v>
       </c>
@@ -3306,7 +3304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>111</v>
@@ -3328,7 +3326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>124</v>
@@ -3348,7 +3346,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36800</v>
       </c>
@@ -3374,7 +3372,7 @@
         <v>36870</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>50</v>
@@ -3396,7 +3394,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>118</v>
@@ -3416,7 +3414,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36831</v>
       </c>
@@ -3442,7 +3440,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>36861</v>
       </c>
@@ -3468,7 +3466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>111</v>
@@ -3490,7 +3488,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>50</v>
@@ -3512,7 +3510,7 @@
         <v>36872</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="20" t="s">
         <v>50</v>
@@ -3534,7 +3532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>118</v>
@@ -3554,7 +3552,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>97</v>
       </c>
@@ -3576,7 +3574,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>36892</v>
       </c>
@@ -3602,7 +3600,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>135</v>
@@ -3622,7 +3620,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>36923</v>
       </c>
@@ -3648,7 +3646,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>51</v>
@@ -3670,7 +3668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="20" t="s">
         <v>118</v>
@@ -3690,7 +3688,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>36951</v>
       </c>
@@ -3716,7 +3714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>140</v>
@@ -3733,7 +3731,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>36982</v>
       </c>
@@ -3753,7 +3751,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37012</v>
       </c>
@@ -3779,7 +3777,7 @@
         <v>36561</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>45</v>
@@ -3801,7 +3799,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="20" t="s">
         <v>141</v>
@@ -3823,7 +3821,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37043</v>
       </c>
@@ -3849,7 +3847,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="20" t="s">
         <v>50</v>
@@ -3871,7 +3869,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>118</v>
@@ -3891,7 +3889,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37073</v>
       </c>
@@ -3917,7 +3915,7 @@
         <v>36533</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>142</v>
@@ -3937,7 +3935,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37104</v>
       </c>
@@ -3963,7 +3961,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <v>37135</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>37020</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>50</v>
@@ -4011,7 +4009,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>37165</v>
       </c>
@@ -4037,7 +4035,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>50</v>
@@ -4059,7 +4057,7 @@
         <v>37235</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>103</v>
@@ -4079,7 +4077,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37196</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>37084</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>45</v>
@@ -4127,7 +4125,7 @@
         <v>36962</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23"/>
       <c r="B80" s="20" t="s">
         <v>143</v>
@@ -4147,7 +4145,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>37226</v>
       </c>
@@ -4171,7 +4169,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>96</v>
       </c>
@@ -4193,7 +4191,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>37257</v>
       </c>
@@ -4217,7 +4215,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>37288</v>
       </c>
@@ -4241,7 +4239,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>37316</v>
       </c>
@@ -4267,7 +4265,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>153</v>
@@ -4287,7 +4285,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>37347</v>
       </c>
@@ -4313,7 +4311,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>154</v>
@@ -4333,7 +4331,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>37377</v>
       </c>
@@ -4357,7 +4355,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>37408</v>
       </c>
@@ -4383,7 +4381,7 @@
         <v>36805</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>50</v>
@@ -4405,7 +4403,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>118</v>
@@ -4425,7 +4423,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>37438</v>
       </c>
@@ -4451,7 +4449,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>152</v>
@@ -4471,7 +4469,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>37469</v>
       </c>
@@ -4497,7 +4495,7 @@
         <v>37264</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>50</v>
@@ -4519,7 +4517,7 @@
         <v>37384</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>56</v>
@@ -4541,7 +4539,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>37500</v>
       </c>
@@ -4567,7 +4565,7 @@
         <v>37569</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>37530</v>
       </c>
@@ -4593,7 +4591,7 @@
         <v>37447</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23"/>
       <c r="B100" s="20" t="s">
         <v>50</v>
@@ -4615,7 +4613,7 @@
         <v>37539</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>45</v>
@@ -4637,7 +4635,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37561</v>
       </c>
@@ -4663,7 +4661,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>50</v>
@@ -4685,7 +4683,7 @@
         <v>37601</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>45</v>
@@ -4707,7 +4705,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>50</v>
@@ -4729,7 +4727,7 @@
         <v>37327</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23"/>
       <c r="B106" s="20" t="s">
         <v>159</v>
@@ -4749,7 +4747,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>37591</v>
       </c>
@@ -4775,7 +4773,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>45</v>
@@ -4797,7 +4795,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>159</v>
@@ -4817,7 +4815,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>95</v>
       </c>
@@ -4839,7 +4837,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>37622</v>
       </c>
@@ -4863,7 +4861,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>37653</v>
       </c>
@@ -4887,7 +4885,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>140</v>
@@ -4907,7 +4905,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>37681</v>
       </c>
@@ -4933,7 +4931,7 @@
         <v>37744</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4953,7 +4951,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23"/>
       <c r="B116" s="20" t="s">
         <v>50</v>
@@ -4975,7 +4973,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>56</v>
@@ -4997,7 +4995,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>47</v>
@@ -5017,7 +5015,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>166</v>
@@ -5034,7 +5032,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>37712</v>
       </c>
@@ -5058,7 +5056,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>37742</v>
       </c>
@@ -5084,7 +5082,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>47</v>
@@ -5101,7 +5099,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>168</v>
@@ -5121,7 +5119,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>37773</v>
       </c>
@@ -5147,7 +5145,7 @@
         <v>37658</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>169</v>
@@ -5167,7 +5165,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>37803</v>
       </c>
@@ -5193,7 +5191,7 @@
         <v>37628</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>37834</v>
       </c>
@@ -5219,7 +5217,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>170</v>
@@ -5239,7 +5237,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>37865</v>
       </c>
@@ -5265,7 +5263,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>37895</v>
       </c>
@@ -5291,7 +5289,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>171</v>
@@ -5311,7 +5309,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>37926</v>
       </c>
@@ -5335,7 +5333,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>37956</v>
       </c>
@@ -5361,7 +5359,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>50</v>
@@ -5383,7 +5381,7 @@
         <v>37692</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>94</v>
       </c>
@@ -5405,7 +5403,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>37987</v>
       </c>
@@ -5429,7 +5427,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>38018</v>
       </c>
@@ -5449,7 +5447,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>38047</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23"/>
       <c r="B139" s="20" t="s">
         <v>45</v>
@@ -5492,7 +5490,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23"/>
       <c r="B140" s="20" t="s">
         <v>50</v>
@@ -5511,7 +5509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>38078</v>
       </c>
@@ -5537,7 +5535,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>50</v>
@@ -5559,7 +5557,7 @@
         <v>38325</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>152</v>
@@ -5579,7 +5577,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>38108</v>
       </c>
@@ -5603,7 +5601,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38139</v>
       </c>
@@ -5629,7 +5627,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23"/>
       <c r="B146" s="20" t="s">
         <v>56</v>
@@ -5651,7 +5649,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>38169</v>
       </c>
@@ -5677,7 +5675,7 @@
         <v>38237</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>50</v>
@@ -5696,7 +5694,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>173</v>
@@ -5716,7 +5714,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>38200</v>
       </c>
@@ -5742,7 +5740,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>173</v>
@@ -5762,7 +5760,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>38231</v>
       </c>
@@ -5788,7 +5786,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>174</v>
@@ -5808,7 +5806,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>38261</v>
       </c>
@@ -5834,7 +5832,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>51</v>
@@ -5856,7 +5854,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>45</v>
@@ -5878,7 +5876,7 @@
         <v>38118</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>38292</v>
       </c>
@@ -5904,7 +5902,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23"/>
       <c r="B158" s="20" t="s">
         <v>45</v>
@@ -5926,7 +5924,7 @@
         <v>38058</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>38322</v>
       </c>
@@ -5950,7 +5948,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="48" t="s">
         <v>93</v>
       </c>
@@ -5972,7 +5970,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>38353</v>
       </c>
@@ -5998,7 +5996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>135</v>
@@ -6018,7 +6016,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>38384</v>
       </c>
@@ -6044,7 +6042,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>159</v>
@@ -6064,7 +6062,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>38412</v>
       </c>
@@ -6088,7 +6086,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23">
         <v>38443</v>
       </c>
@@ -6114,7 +6112,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>56</v>
@@ -6134,7 +6132,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>198</v>
@@ -6154,7 +6152,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>38473</v>
       </c>
@@ -6178,7 +6176,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>50</v>
@@ -6200,7 +6198,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>56</v>
@@ -6222,7 +6220,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>198</v>
@@ -6242,7 +6240,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>38504</v>
       </c>
@@ -6268,7 +6266,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>173</v>
@@ -6288,7 +6286,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>38534</v>
       </c>
@@ -6314,7 +6312,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>51</v>
@@ -6336,7 +6334,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23"/>
       <c r="B177" s="20" t="s">
         <v>199</v>
@@ -6356,7 +6354,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>38565</v>
       </c>
@@ -6382,7 +6380,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>141</v>
@@ -6404,7 +6402,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>210</v>
@@ -6426,7 +6424,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>199</v>
@@ -6446,7 +6444,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>38596</v>
       </c>
@@ -6470,7 +6468,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>38626</v>
       </c>
@@ -6496,7 +6494,7 @@
         <v>38421</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>212</v>
@@ -6518,7 +6516,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>198</v>
@@ -6538,7 +6536,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>38657</v>
       </c>
@@ -6564,7 +6562,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>199</v>
@@ -6584,7 +6582,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>47</v>
@@ -6604,7 +6602,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>47</v>
@@ -6624,7 +6622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>38687</v>
       </c>
@@ -6648,7 +6646,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
         <v>92</v>
       </c>
@@ -6670,7 +6668,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <v>38718</v>
       </c>
@@ -6696,7 +6694,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>224</v>
@@ -6718,7 +6716,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>227</v>
@@ -6735,7 +6733,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>38749</v>
       </c>
@@ -6761,7 +6759,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>228</v>
@@ -6781,7 +6779,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>38777</v>
       </c>
@@ -6805,7 +6803,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>50</v>
@@ -6827,7 +6825,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>237</v>
@@ -6847,7 +6845,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>38808</v>
       </c>
@@ -6873,7 +6871,7 @@
         <v>38994</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>223</v>
@@ -6892,7 +6890,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>238</v>
@@ -6909,7 +6907,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23"/>
       <c r="B203" s="20" t="s">
         <v>47</v>
@@ -6926,7 +6924,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -6945,7 +6943,7 @@
         <v>39056</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>38838</v>
       </c>
@@ -6969,7 +6967,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>38869</v>
       </c>
@@ -6995,7 +6993,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>167</v>
@@ -7012,7 +7010,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>38899</v>
       </c>
@@ -7038,7 +7036,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -7060,7 +7058,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>211</v>
@@ -7080,7 +7078,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>38930</v>
       </c>
@@ -7104,7 +7102,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>38961</v>
       </c>
@@ -7130,7 +7128,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>240</v>
@@ -7150,7 +7148,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>38991</v>
       </c>
@@ -7174,7 +7172,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>241</v>
@@ -7194,7 +7192,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>39022</v>
       </c>
@@ -7220,7 +7218,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>252</v>
@@ -7237,7 +7235,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>39052</v>
       </c>
@@ -7263,7 +7261,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>45</v>
@@ -7285,7 +7283,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>166</v>
@@ -7305,7 +7303,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="48" t="s">
         <v>91</v>
       </c>
@@ -7327,7 +7325,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>39083</v>
       </c>
@@ -7353,7 +7351,7 @@
         <v>39115</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>221</v>
@@ -7373,7 +7371,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>39114</v>
       </c>
@@ -7399,7 +7397,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>47</v>
@@ -7419,7 +7417,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>222</v>
@@ -7439,7 +7437,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>39142</v>
       </c>
@@ -7465,7 +7463,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>224</v>
@@ -7487,7 +7485,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>103</v>
@@ -7507,7 +7505,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>39173</v>
       </c>
@@ -7531,7 +7529,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>39203</v>
       </c>
@@ -7557,7 +7555,7 @@
         <v>39299</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>47</v>
@@ -7577,7 +7575,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23"/>
       <c r="B233" s="20" t="s">
         <v>224</v>
@@ -7599,7 +7597,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>225</v>
@@ -7619,7 +7617,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>39234</v>
       </c>
@@ -7645,7 +7643,7 @@
         <v>39088</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>50</v>
@@ -7667,7 +7665,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>159</v>
@@ -7687,7 +7685,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>39264</v>
       </c>
@@ -7711,7 +7709,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>111</v>
@@ -7733,7 +7731,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>39295</v>
       </c>
@@ -7759,7 +7757,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>103</v>
@@ -7779,7 +7777,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>39326</v>
       </c>
@@ -7805,7 +7803,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>199</v>
@@ -7825,7 +7823,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>39356</v>
       </c>
@@ -7851,7 +7849,7 @@
         <v>39212</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>223</v>
@@ -7873,7 +7871,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>50</v>
@@ -7895,7 +7893,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>255</v>
@@ -7915,7 +7913,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>39387</v>
       </c>
@@ -7941,7 +7939,7 @@
         <v>39305</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>47</v>
@@ -7961,7 +7959,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>223</v>
@@ -7983,7 +7981,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>224</v>
@@ -8005,7 +8003,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>39417</v>
       </c>
@@ -8025,7 +8023,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="48" t="s">
         <v>90</v>
       </c>
@@ -8047,7 +8045,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>39448</v>
       </c>
@@ -8073,7 +8071,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23"/>
       <c r="B255" s="20" t="s">
         <v>50</v>
@@ -8092,7 +8090,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>143</v>
@@ -8112,7 +8110,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>39479</v>
       </c>
@@ -8138,7 +8136,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>266</v>
@@ -8158,7 +8156,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>39508</v>
       </c>
@@ -8182,7 +8180,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>47</v>
@@ -8202,7 +8200,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -8224,7 +8222,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>222</v>
@@ -8244,7 +8242,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <v>39539</v>
       </c>
@@ -8268,7 +8266,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>39569</v>
       </c>
@@ -8294,7 +8292,7 @@
         <v>39483</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>212</v>
@@ -8316,7 +8314,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>111</v>
@@ -8338,7 +8336,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>111</v>
@@ -8360,7 +8358,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23"/>
       <c r="B268" s="20" t="s">
         <v>198</v>
@@ -8380,7 +8378,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>39600</v>
       </c>
@@ -8404,7 +8402,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>39630</v>
       </c>
@@ -8428,7 +8426,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>39661</v>
       </c>
@@ -8454,7 +8452,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>281</v>
@@ -8474,7 +8472,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>39692</v>
       </c>
@@ -8498,7 +8496,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>39722</v>
       </c>
@@ -8524,7 +8522,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>47</v>
@@ -8544,7 +8542,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>50</v>
@@ -8566,7 +8564,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>284</v>
@@ -8586,7 +8584,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <v>39753</v>
       </c>
@@ -8612,7 +8610,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>224</v>
@@ -8634,7 +8632,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>282</v>
@@ -8654,7 +8652,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <v>39783</v>
       </c>
@@ -8680,7 +8678,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>50</v>
@@ -8702,7 +8700,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>283</v>
@@ -8722,7 +8720,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="48" t="s">
         <v>89</v>
       </c>
@@ -8744,7 +8742,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23">
         <v>39814</v>
       </c>
@@ -8768,7 +8766,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23">
         <v>39845</v>
       </c>
@@ -8792,7 +8790,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>290</v>
@@ -8812,7 +8810,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <v>39873</v>
       </c>
@@ -8836,7 +8834,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>50</v>
@@ -8858,7 +8856,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>291</v>
@@ -8878,7 +8876,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <v>39904</v>
       </c>
@@ -8902,7 +8900,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <v>39934</v>
       </c>
@@ -8928,7 +8926,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23"/>
       <c r="B293" s="20" t="s">
         <v>47</v>
@@ -8948,7 +8946,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>223</v>
@@ -8970,7 +8968,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>293</v>
@@ -8990,7 +8988,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <v>39965</v>
       </c>
@@ -9014,7 +9012,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <v>39995</v>
       </c>
@@ -9038,7 +9036,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23">
         <v>40026</v>
       </c>
@@ -9062,7 +9060,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <v>40057</v>
       </c>
@@ -9088,7 +9086,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>51</v>
@@ -9110,7 +9108,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>51</v>
@@ -9132,7 +9130,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>223</v>
@@ -9154,7 +9152,7 @@
         <v>40066</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>290</v>
@@ -9174,7 +9172,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <v>40087</v>
       </c>
@@ -9200,7 +9198,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>212</v>
@@ -9222,7 +9220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>269</v>
@@ -9242,7 +9240,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <v>40118</v>
       </c>
@@ -9268,7 +9266,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>302</v>
@@ -9288,7 +9286,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <v>40148</v>
       </c>
@@ -9314,7 +9312,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>303</v>
@@ -9334,7 +9332,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="48" t="s">
         <v>88</v>
       </c>
@@ -9356,7 +9354,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23">
         <v>40179</v>
       </c>
@@ -9380,7 +9378,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <v>40210</v>
       </c>
@@ -9404,7 +9402,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <v>40238</v>
       </c>
@@ -9428,7 +9426,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>224</v>
@@ -9450,7 +9448,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>102</v>
@@ -9470,7 +9468,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <v>40269</v>
       </c>
@@ -9496,7 +9494,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>320</v>
@@ -9516,7 +9514,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <v>40299</v>
       </c>
@@ -9540,7 +9538,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>224</v>
@@ -9562,7 +9560,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>50</v>
@@ -9584,7 +9582,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>313</v>
@@ -9604,7 +9602,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <v>40330</v>
       </c>
@@ -9628,7 +9626,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <v>40360</v>
       </c>
@@ -9652,7 +9650,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <v>40391</v>
       </c>
@@ -9676,7 +9674,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <v>40422</v>
       </c>
@@ -9700,7 +9698,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <v>40452</v>
       </c>
@@ -9726,7 +9724,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>47</v>
@@ -9746,7 +9744,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>317</v>
@@ -9766,7 +9764,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <v>40483</v>
       </c>
@@ -9790,7 +9788,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23">
         <v>40513</v>
       </c>
@@ -9816,7 +9814,7 @@
         <v>40247</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>224</v>
@@ -9838,7 +9836,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>223</v>
@@ -9860,7 +9858,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>319</v>
@@ -9880,7 +9878,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="48" t="s">
         <v>87</v>
       </c>
@@ -9902,7 +9900,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <v>40544</v>
       </c>
@@ -9922,7 +9920,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23">
         <v>40575</v>
       </c>
@@ -9946,7 +9944,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>330</v>
@@ -9966,7 +9964,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <v>40603</v>
       </c>
@@ -9990,7 +9988,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23">
         <v>40634</v>
       </c>
@@ -10016,7 +10014,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23"/>
       <c r="B341" s="20" t="s">
         <v>268</v>
@@ -10036,7 +10034,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23">
         <v>40664</v>
       </c>
@@ -10060,7 +10058,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23"/>
       <c r="B343" s="20" t="s">
         <v>50</v>
@@ -10082,7 +10080,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>332</v>
@@ -10102,7 +10100,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>40695</v>
       </c>
@@ -10126,7 +10124,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>40725</v>
       </c>
@@ -10150,7 +10148,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>40756</v>
       </c>
@@ -10174,7 +10172,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <v>40787</v>
       </c>
@@ -10198,7 +10196,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>40817</v>
       </c>
@@ -10218,7 +10216,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>40848</v>
       </c>
@@ -10244,7 +10242,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23"/>
       <c r="B351" s="20" t="s">
         <v>337</v>
@@ -10264,7 +10262,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>40878</v>
       </c>
@@ -10290,7 +10288,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23"/>
       <c r="B353" s="20" t="s">
         <v>338</v>
@@ -10310,7 +10308,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="48" t="s">
         <v>86</v>
       </c>
@@ -10332,7 +10330,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>40909</v>
       </c>
@@ -10356,7 +10354,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>40940</v>
       </c>
@@ -10382,7 +10380,7 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>118</v>
@@ -10402,7 +10400,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="49"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>40969</v>
       </c>
@@ -10426,7 +10424,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>135</v>
@@ -10446,7 +10444,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>41000</v>
       </c>
@@ -10472,7 +10470,7 @@
         <v>40972</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23"/>
       <c r="B361" s="20" t="s">
         <v>50</v>
@@ -10494,7 +10492,7 @@
         <v>41003</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>223</v>
@@ -10516,7 +10514,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23"/>
       <c r="B363" s="20" t="s">
         <v>346</v>
@@ -10536,7 +10534,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>41030</v>
       </c>
@@ -10562,7 +10560,7 @@
         <v>41157</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23"/>
       <c r="B365" s="20" t="s">
         <v>223</v>
@@ -10584,7 +10582,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>47</v>
@@ -10604,7 +10602,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>347</v>
@@ -10624,7 +10622,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>41061</v>
       </c>
@@ -10650,7 +10648,7 @@
         <v>41066</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>41091</v>
       </c>
@@ -10674,7 +10672,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <v>41122</v>
       </c>
@@ -10698,7 +10696,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>41153</v>
       </c>
@@ -10724,7 +10722,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>51</v>
@@ -10746,7 +10744,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>167</v>
@@ -10768,7 +10766,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>41183</v>
       </c>
@@ -10792,7 +10790,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>41214</v>
       </c>
@@ -10816,7 +10814,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>41244</v>
       </c>
@@ -10842,7 +10840,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>141</v>
@@ -10861,7 +10859,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>358</v>
@@ -10878,7 +10876,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="48" t="s">
         <v>85</v>
       </c>
@@ -10900,7 +10898,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>41275</v>
       </c>
@@ -10924,7 +10922,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>41306</v>
       </c>
@@ -10950,7 +10948,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>41334</v>
       </c>
@@ -10970,7 +10968,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>41365</v>
       </c>
@@ -10996,7 +10994,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>361</v>
@@ -11016,7 +11014,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>41395</v>
       </c>
@@ -11042,7 +11040,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>199</v>
@@ -11062,7 +11060,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <v>41426</v>
       </c>
@@ -11086,7 +11084,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>41456</v>
       </c>
@@ -11110,7 +11108,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>41487</v>
       </c>
@@ -11136,7 +11134,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23"/>
       <c r="B390" s="20" t="s">
         <v>364</v>
@@ -11156,7 +11154,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>41518</v>
       </c>
@@ -11182,7 +11180,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>111</v>
@@ -11204,7 +11202,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>302</v>
@@ -11224,7 +11222,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>41548</v>
       </c>
@@ -11248,7 +11246,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>41579</v>
       </c>
@@ -11272,7 +11270,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>41609</v>
       </c>
@@ -11298,7 +11296,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>224</v>
@@ -11317,7 +11315,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>374</v>
@@ -11336,7 +11334,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>375</v>
@@ -11353,7 +11351,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="48" t="s">
         <v>84</v>
       </c>
@@ -11375,7 +11373,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>41640</v>
       </c>
@@ -11401,7 +11399,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>379</v>
@@ -11421,7 +11419,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>41671</v>
       </c>
@@ -11445,7 +11443,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>41699</v>
       </c>
@@ -11471,7 +11469,7 @@
         <v>41976</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23"/>
       <c r="B405" s="20" t="s">
         <v>381</v>
@@ -11491,7 +11489,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>41730</v>
       </c>
@@ -11517,7 +11515,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>380</v>
@@ -11537,7 +11535,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>41760</v>
       </c>
@@ -11563,7 +11561,7 @@
         <v>41675</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>47</v>
@@ -11583,7 +11581,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23"/>
       <c r="B410" s="20" t="s">
         <v>382</v>
@@ -11603,7 +11601,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>41791</v>
       </c>
@@ -11629,7 +11627,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>50</v>
@@ -11651,7 +11649,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23"/>
       <c r="B413" s="20" t="s">
         <v>47</v>
@@ -11671,7 +11669,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23"/>
       <c r="B414" s="20" t="s">
         <v>168</v>
@@ -11691,7 +11689,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>41821</v>
       </c>
@@ -11715,7 +11713,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>41852</v>
       </c>
@@ -11739,7 +11737,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>41883</v>
       </c>
@@ -11763,7 +11761,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>41913</v>
       </c>
@@ -11787,7 +11785,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>41944</v>
       </c>
@@ -11811,7 +11809,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>41974</v>
       </c>
@@ -11837,7 +11835,7 @@
         <v>41985</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>209</v>
@@ -11859,7 +11857,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>392</v>
@@ -11879,7 +11877,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="48" t="s">
         <v>83</v>
       </c>
@@ -11901,7 +11899,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <v>42005</v>
       </c>
@@ -11925,7 +11923,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <v>42036</v>
       </c>
@@ -11949,7 +11947,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <v>42064</v>
       </c>
@@ -11973,7 +11971,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23">
         <v>42095</v>
       </c>
@@ -11999,7 +11997,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>396</v>
@@ -12019,7 +12017,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <v>42125</v>
       </c>
@@ -12045,7 +12043,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>47</v>
@@ -12065,7 +12063,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>116</v>
@@ -12085,7 +12083,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <v>42156</v>
       </c>
@@ -12111,7 +12109,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>397</v>
@@ -12128,7 +12126,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <v>42186</v>
       </c>
@@ -12152,7 +12150,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <v>42217</v>
       </c>
@@ -12178,7 +12176,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>404</v>
@@ -12195,7 +12193,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <v>42248</v>
       </c>
@@ -12219,7 +12217,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <v>42278</v>
       </c>
@@ -12243,7 +12241,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23">
         <v>42309</v>
       </c>
@@ -12267,7 +12265,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <v>42339</v>
       </c>
@@ -12293,7 +12291,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>405</v>
@@ -12313,7 +12311,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="48" t="s">
         <v>82</v>
       </c>
@@ -12335,7 +12333,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <v>42370</v>
       </c>
@@ -12361,7 +12359,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>173</v>
@@ -12381,7 +12379,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <v>42401</v>
       </c>
@@ -12405,7 +12403,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <v>42430</v>
       </c>
@@ -12429,7 +12427,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>47</v>
@@ -12449,7 +12447,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -12469,7 +12467,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>408</v>
@@ -12489,7 +12487,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23">
         <v>42461</v>
       </c>
@@ -12513,7 +12511,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <v>42491</v>
       </c>
@@ -12537,7 +12535,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <v>42522</v>
       </c>
@@ -12563,7 +12561,7 @@
         <v>42435</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>56</v>
@@ -12585,7 +12583,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23"/>
       <c r="B454" s="20" t="s">
         <v>411</v>
@@ -12605,7 +12603,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <v>42552</v>
       </c>
@@ -12629,7 +12627,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <v>42583</v>
       </c>
@@ -12653,7 +12651,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <v>42614</v>
       </c>
@@ -12677,7 +12675,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23">
         <v>42644</v>
       </c>
@@ -12701,7 +12699,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <v>42675</v>
       </c>
@@ -12727,7 +12725,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23"/>
       <c r="B460" s="20" t="s">
         <v>300</v>
@@ -12747,7 +12745,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <v>42705</v>
       </c>
@@ -12773,7 +12771,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>419</v>
@@ -12793,7 +12791,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="48" t="s">
         <v>81</v>
       </c>
@@ -12815,7 +12813,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23">
         <v>42736</v>
       </c>
@@ -12841,7 +12839,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23">
         <v>42767</v>
       </c>
@@ -12861,7 +12859,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <v>42795</v>
       </c>
@@ -12881,7 +12879,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23">
         <v>42826</v>
       </c>
@@ -12907,7 +12905,7 @@
         <v>43073</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23">
         <v>42856</v>
       </c>
@@ -12927,7 +12925,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <v>42887</v>
       </c>
@@ -12947,7 +12945,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23">
         <v>42917</v>
       </c>
@@ -12973,7 +12971,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23"/>
       <c r="B471" s="20" t="s">
         <v>56</v>
@@ -12995,7 +12993,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <v>42948</v>
       </c>
@@ -13021,7 +13019,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <v>42979</v>
       </c>
@@ -13047,7 +13045,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>49</v>
@@ -13069,7 +13067,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <v>43009</v>
       </c>
@@ -13089,7 +13087,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <v>43040</v>
       </c>
@@ -13109,7 +13107,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23">
         <v>43070</v>
       </c>
@@ -13135,7 +13133,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>425</v>
@@ -13155,7 +13153,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="48" t="s">
         <v>44</v>
       </c>
@@ -13177,7 +13175,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43101</v>
       </c>
@@ -13197,7 +13195,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>43132</v>
       </c>
@@ -13217,7 +13215,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>43160</v>
       </c>
@@ -13237,7 +13235,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>43191</v>
       </c>
@@ -13263,7 +13261,7 @@
         <v>43203</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>46</v>
@@ -13282,7 +13280,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>47</v>
@@ -13299,7 +13297,7 @@
         <v>43248</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>43221</v>
       </c>
@@ -13319,7 +13317,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>43252</v>
       </c>
@@ -13339,7 +13337,7 @@
       <c r="J487" s="12"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>43282</v>
       </c>
@@ -13365,7 +13363,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>43313</v>
       </c>
@@ -13391,7 +13389,7 @@
         <v>43314</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>43344</v>
       </c>
@@ -13411,7 +13409,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>43374</v>
       </c>
@@ -13431,7 +13429,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43405</v>
       </c>
@@ -13451,7 +13449,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43435</v>
       </c>
@@ -13477,7 +13475,7 @@
         <v>43438</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>51</v>
@@ -13499,7 +13497,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>49</v>
@@ -13521,7 +13519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="48" t="s">
         <v>55</v>
       </c>
@@ -13539,7 +13537,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>43466</v>
       </c>
@@ -13559,7 +13557,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43497</v>
       </c>
@@ -13579,7 +13577,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43525</v>
       </c>
@@ -13599,7 +13597,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43556</v>
       </c>
@@ -13625,7 +13623,7 @@
         <v>43577</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43586</v>
       </c>
@@ -13651,7 +13649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>47</v>
@@ -13668,7 +13666,7 @@
         <v>43612</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43617</v>
       </c>
@@ -13688,7 +13686,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>43647</v>
       </c>
@@ -13714,7 +13712,7 @@
         <v>43651</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>43678</v>
       </c>
@@ -13734,7 +13732,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>43709</v>
       </c>
@@ -13760,7 +13758,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>50</v>
@@ -13779,7 +13777,7 @@
         <v>43719</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>51</v>
@@ -13798,7 +13796,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>45</v>
@@ -13817,7 +13815,7 @@
         <v>43738</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20" t="s">
         <v>56</v>
@@ -13836,7 +13834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43739</v>
       </c>
@@ -13856,7 +13854,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43770</v>
       </c>
@@ -13880,7 +13878,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>47</v>
@@ -13897,7 +13895,7 @@
         <v>43826</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20" t="s">
         <v>50</v>
@@ -13916,7 +13914,7 @@
         <v>43825</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43800</v>
       </c>
@@ -13936,7 +13934,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="48" t="s">
         <v>61</v>
       </c>
@@ -13954,7 +13952,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43831</v>
       </c>
@@ -13978,7 +13976,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>45</v>
@@ -13997,7 +13995,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>47</v>
@@ -14014,7 +14012,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>43862</v>
       </c>
@@ -14034,7 +14032,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>43891</v>
       </c>
@@ -14054,7 +14052,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43922</v>
       </c>
@@ -14074,7 +14072,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43952</v>
       </c>
@@ -14094,7 +14092,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43983</v>
       </c>
@@ -14114,7 +14112,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>44013</v>
       </c>
@@ -14134,7 +14132,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>44044</v>
       </c>
@@ -14154,7 +14152,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>44075</v>
       </c>
@@ -14174,7 +14172,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>44105</v>
       </c>
@@ -14194,7 +14192,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44136</v>
       </c>
@@ -14214,7 +14212,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44166</v>
       </c>
@@ -14238,7 +14236,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>63</v>
@@ -14258,7 +14256,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="48" t="s">
         <v>65</v>
       </c>
@@ -14276,7 +14274,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44197</v>
       </c>
@@ -14296,7 +14294,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44228</v>
       </c>
@@ -14320,7 +14318,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44256</v>
       </c>
@@ -14340,7 +14338,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44287</v>
       </c>
@@ -14360,7 +14358,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44317</v>
       </c>
@@ -14384,7 +14382,7 @@
         <v>44344</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44348</v>
       </c>
@@ -14404,7 +14402,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44378</v>
       </c>
@@ -14430,7 +14428,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44409</v>
       </c>
@@ -14450,7 +14448,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>44440</v>
       </c>
@@ -14470,7 +14468,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44470</v>
       </c>
@@ -14490,7 +14488,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44501</v>
       </c>
@@ -14514,7 +14512,7 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20" t="s">
         <v>45</v>
@@ -14533,7 +14531,7 @@
         <v>44559</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44531</v>
       </c>
@@ -14553,7 +14551,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>68</v>
       </c>
@@ -14571,7 +14569,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44562</v>
       </c>
@@ -14591,7 +14589,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44593</v>
       </c>
@@ -14611,7 +14609,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44621</v>
       </c>
@@ -14637,7 +14635,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44652</v>
       </c>
@@ -14661,7 +14659,7 @@
         <v>44664</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44682</v>
       </c>
@@ -14681,7 +14679,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44713</v>
       </c>
@@ -14707,7 +14705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>45</v>
@@ -14726,7 +14724,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>44743</v>
       </c>
@@ -14746,7 +14744,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>44774</v>
       </c>
@@ -14772,7 +14770,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>44805</v>
       </c>
@@ -14792,7 +14790,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>44835</v>
       </c>
@@ -14812,7 +14810,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44866</v>
       </c>
@@ -14836,7 +14834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>50</v>
@@ -14858,7 +14856,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44896</v>
       </c>
@@ -14882,7 +14880,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>49</v>
@@ -14904,7 +14902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="48" t="s">
         <v>77</v>
       </c>
@@ -14922,7 +14920,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>44927</v>
       </c>
@@ -14942,7 +14940,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>44958</v>
       </c>
@@ -14966,7 +14964,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44986</v>
       </c>
@@ -14986,7 +14984,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45017</v>
       </c>
@@ -15006,13 +15004,17 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45047</v>
       </c>
-      <c r="B567" s="20"/>
+      <c r="B567" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C567" s="13"/>
-      <c r="D567" s="39"/>
+      <c r="D567" s="39">
+        <v>1</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="13" t="str">
@@ -15022,9 +15024,11 @@
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="20"/>
-    </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K567" s="49">
+        <v>45075</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45078</v>
       </c>
@@ -15042,7 +15046,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>45108</v>
       </c>
@@ -15060,7 +15064,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>45139</v>
       </c>
@@ -15078,7 +15082,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>45170</v>
       </c>
@@ -15096,7 +15100,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>45200</v>
       </c>
@@ -15114,7 +15118,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>45231</v>
       </c>
@@ -15132,7 +15136,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>45261</v>
       </c>
@@ -15150,7 +15154,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>45292</v>
       </c>
@@ -15168,7 +15172,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>45323</v>
       </c>
@@ -15186,7 +15190,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>45352</v>
       </c>
@@ -15204,7 +15208,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>45383</v>
       </c>
@@ -15222,7 +15226,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>45413</v>
       </c>
@@ -15240,7 +15244,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>45444</v>
       </c>
@@ -15258,7 +15262,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>45474</v>
       </c>
@@ -15276,7 +15280,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>45505</v>
       </c>
@@ -15294,7 +15298,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>45536</v>
       </c>
@@ -15312,7 +15316,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>45566</v>
       </c>
@@ -15330,7 +15334,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>45597</v>
       </c>
@@ -15348,7 +15352,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45627</v>
       </c>
@@ -15366,7 +15370,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45658</v>
       </c>
@@ -15384,7 +15388,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45689</v>
       </c>
@@ -15402,7 +15406,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45717</v>
       </c>
@@ -15420,7 +15424,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>45748</v>
       </c>
@@ -15438,7 +15442,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>45778</v>
       </c>
@@ -15456,7 +15460,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>45809</v>
       </c>
@@ -15474,7 +15478,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>45839</v>
       </c>
@@ -15492,7 +15496,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>45870</v>
       </c>
@@ -15510,7 +15514,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>45901</v>
       </c>
@@ -15528,7 +15532,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>45931</v>
       </c>
@@ -15546,7 +15550,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>45962</v>
       </c>
@@ -15564,7 +15568,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>45992</v>
       </c>
@@ -15582,7 +15586,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>46023</v>
       </c>
@@ -15600,7 +15604,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>46054</v>
       </c>
@@ -15618,7 +15622,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>46082</v>
       </c>
@@ -15636,7 +15640,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>46113</v>
       </c>
@@ -15654,7 +15658,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>46143</v>
       </c>
@@ -15672,7 +15676,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>46174</v>
       </c>
@@ -15690,7 +15694,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>46204</v>
       </c>
@@ -15708,7 +15712,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>46235</v>
       </c>
@@ -15726,7 +15730,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>46266</v>
       </c>
@@ -15744,7 +15748,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>46296</v>
       </c>
@@ -15762,7 +15766,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>46327</v>
       </c>
@@ -15780,7 +15784,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>46357</v>
       </c>
@@ -15798,7 +15802,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -15814,7 +15818,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -15830,7 +15834,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="41"/>
       <c r="B613" s="15"/>
       <c r="C613" s="42"/>
@@ -15861,10 +15865,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15887,28 +15891,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -15921,7 +15925,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15950,7 +15954,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -15974,17 +15978,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>431</v>
       </c>
@@ -16008,10 +16012,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>216.11200000000008</v>
+        <v>215.11200000000008</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16039,7 +16043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16065,7 +16069,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16091,7 +16095,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16117,7 +16121,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16143,7 +16147,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16169,7 +16173,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16195,7 +16199,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16221,7 +16225,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16241,7 +16245,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16261,7 +16265,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16281,7 +16285,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16302,7 +16306,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16323,7 +16327,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16344,7 +16348,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16365,7 +16369,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16386,7 +16390,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16407,7 +16411,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16428,7 +16432,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16449,7 +16453,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16470,7 +16474,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16491,7 +16495,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16512,7 +16516,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16533,7 +16537,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16554,7 +16558,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16575,7 +16579,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16596,7 +16600,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16617,7 +16621,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16638,7 +16642,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16659,7 +16663,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16680,7 +16684,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16701,7 +16705,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16710,7 +16714,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16719,7 +16723,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16728,7 +16732,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16737,7 +16741,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16746,7 +16750,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16755,7 +16759,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16764,7 +16768,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16773,7 +16777,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16782,7 +16786,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16791,7 +16795,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16800,7 +16804,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16809,7 +16813,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16818,7 +16822,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16827,7 +16831,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16836,7 +16840,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16845,7 +16849,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16854,7 +16858,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16863,7 +16867,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16872,7 +16876,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16881,7 +16885,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16890,7 +16894,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16899,7 +16903,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16908,7 +16912,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16917,7 +16921,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16926,7 +16930,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16935,7 +16939,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16944,7 +16948,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16953,7 +16957,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16962,7 +16966,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
